--- a/ref/ingestion/calibrated/el_salvador/model_input_variables_el_salvador_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/el_salvador/model_input_variables_el_salvador_ip_calibrated.xlsx
@@ -15283,112 +15283,112 @@
         <v>0.8</v>
       </c>
       <c r="J114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="K114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="L114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="M114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="N114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="O114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="P114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="Q114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="R114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="S114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="T114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="U114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="V114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="W114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="X114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="Y114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="Z114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AA114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AB114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AC114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AD114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AE114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AF114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AG114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AH114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AI114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AJ114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AK114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AL114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AM114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AN114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AO114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AP114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AQ114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AR114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
       <c r="AS114" t="n">
-        <v>6195800.675</v>
+        <v>163.8802033</v>
       </c>
     </row>
     <row r="115">

--- a/ref/ingestion/calibrated/el_salvador/model_input_variables_el_salvador_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/el_salvador/model_input_variables_el_salvador_ip_calibrated.xlsx
@@ -13449,112 +13449,112 @@
         <v>0.8</v>
       </c>
       <c r="J100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="K100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="L100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="M100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="N100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="O100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="P100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="Q100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="R100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="S100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="T100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="U100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="V100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="W100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="X100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="Y100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="Z100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AA100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AB100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AC100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AD100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AE100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AF100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AG100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AH100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AI100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AJ100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AK100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AL100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AM100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AN100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AO100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AP100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AQ100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AR100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
       <c r="AS100" t="n">
-        <v>791663.4991</v>
+        <v>103148.5282</v>
       </c>
     </row>
     <row r="101">
@@ -13580,112 +13580,112 @@
         <v>0.8</v>
       </c>
       <c r="J101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="K101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="L101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="M101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="N101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="O101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="P101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="Q101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="R101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="S101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="T101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="U101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="V101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="W101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="X101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="Y101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="Z101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AA101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AB101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AC101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AD101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AE101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AF101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AG101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AH101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AI101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AJ101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AK101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AL101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AM101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AN101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AO101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AP101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AR101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
       <c r="AS101" t="n">
-        <v>1778332.718</v>
+        <v>177833.2718</v>
       </c>
     </row>
     <row r="102">
@@ -13842,112 +13842,112 @@
         <v>0.8</v>
       </c>
       <c r="J103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="K103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="L103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="M103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="N103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="O103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="P103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="Q103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="R103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="S103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="T103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="U103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="V103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="W103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="X103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="Y103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="Z103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AA103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AB103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AC103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AD103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AE103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AF103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AG103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AH103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AI103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AJ103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AK103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AL103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AM103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AN103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AO103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AP103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AQ103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AR103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
       <c r="AS103" t="n">
-        <v>30018.30402</v>
+        <v>29151.07325</v>
       </c>
     </row>
     <row r="104">
@@ -14104,112 +14104,112 @@
         <v>0.8</v>
       </c>
       <c r="J105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="K105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="L105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="M105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="N105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="O105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="P105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="Q105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="R105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="S105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="T105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="U105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="V105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="W105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="X105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="Y105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="Z105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AA105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AB105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AC105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AD105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AE105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AF105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AG105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AH105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AI105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AJ105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AK105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AL105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AM105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AN105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AO105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AP105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AQ105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AR105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
       <c r="AS105" t="n">
-        <v>614259.6912</v>
+        <v>159707.5197</v>
       </c>
     </row>
     <row r="106">
@@ -14235,112 +14235,112 @@
         <v>0.8</v>
       </c>
       <c r="J106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="K106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="L106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="M106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="N106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="O106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="P106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="Q106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="R106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="S106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="T106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="U106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="V106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="W106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="X106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="Y106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="Z106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AA106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AB106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AC106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AD106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AE106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AF106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AG106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AH106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AI106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AJ106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AK106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AL106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AM106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AN106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AO106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AP106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AQ106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AR106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AS106" t="n">
-        <v>3448606.912</v>
+        <v>91638.67157999999</v>
       </c>
     </row>
     <row r="107">
@@ -14366,112 +14366,112 @@
         <v>0.8</v>
       </c>
       <c r="J107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="K107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="L107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="M107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="N107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="O107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="P107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="Q107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="R107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="S107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="T107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="U107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="V107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="W107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="X107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="Y107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="Z107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AA107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AB107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AC107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AD107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AE107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AF107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AG107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AH107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AI107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AJ107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AK107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AL107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AM107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AN107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AO107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AP107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AQ107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AR107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
       <c r="AS107" t="n">
-        <v>553726.9496000001</v>
+        <v>1107453.899</v>
       </c>
     </row>
     <row r="108">
@@ -15414,112 +15414,112 @@
         <v>0.8</v>
       </c>
       <c r="J115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="K115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="L115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="M115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="N115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="O115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="P115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="Q115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="R115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="S115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="T115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="U115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="V115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="W115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="X115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="Y115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="Z115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AA115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AB115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AC115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AD115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AE115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AF115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AG115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AH115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AI115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AJ115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AK115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AL115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AM115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AN115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AO115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AP115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AR115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
       <c r="AS115" t="n">
-        <v>1324346.146</v>
+        <v>13243461.46</v>
       </c>
     </row>
     <row r="116">

--- a/ref/ingestion/calibrated/el_salvador/model_input_variables_el_salvador_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/el_salvador/model_input_variables_el_salvador_ip_calibrated.xlsx
@@ -12973,112 +12973,112 @@
         <v>0.8</v>
       </c>
       <c r="J100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="K100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="L100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="M100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="N100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="O100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="P100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="Q100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="R100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="S100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="T100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="U100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="V100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="W100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="X100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="Y100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="Z100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AA100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AB100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AC100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AD100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AE100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AF100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AG100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AH100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AI100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AJ100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AK100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AL100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AM100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AN100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AO100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AP100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AQ100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AR100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
       <c r="AS100">
-        <v>6336705.947</v>
+        <v>103148.5282</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13095,112 +13095,112 @@
         <v>0.8</v>
       </c>
       <c r="J101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="K101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="L101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="M101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="N101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="O101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="P101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="Q101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="R101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="S101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="T101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="U101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="V101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="W101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="X101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="Y101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="Z101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AA101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AB101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AC101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AD101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AE101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AF101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AG101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AH101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AI101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AJ101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AK101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AL101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AM101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AN101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AO101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AP101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AQ101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AR101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
       <c r="AS101">
-        <v>64326.11928</v>
+        <v>177833.2718</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13217,112 +13217,112 @@
         <v>0.8</v>
       </c>
       <c r="J102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="K102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="L102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="M102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="N102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="O102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="P102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="Q102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="R102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="S102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="T102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="U102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="V102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="W102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="X102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="Y102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="Z102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AA102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AB102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AC102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AD102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AE102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AF102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AG102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AH102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AI102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AJ102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AK102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AL102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AM102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AN102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AO102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AP102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AQ102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AR102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
       <c r="AS102">
-        <v>90719.24333</v>
+        <v>833078.8325</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13339,112 +13339,112 @@
         <v>0.8</v>
       </c>
       <c r="J103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="K103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="L103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="M103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="N103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="O103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="P103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="Q103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="R103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="S103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="T103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="U103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="V103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="W103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="X103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="Y103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="Z103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AA103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AB103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AC103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AD103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AE103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AF103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AG103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AH103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AI103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AJ103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AK103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AL103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AM103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AN103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AO103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AP103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AQ103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AR103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
       <c r="AS103">
-        <v>5821.270292</v>
+        <v>29151.07325</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13461,112 +13461,112 @@
         <v>0.8</v>
       </c>
       <c r="J104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="K104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="L104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="M104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="N104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="O104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="P104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="Q104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="R104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="S104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="T104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="U104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="V104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="W104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="X104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="Y104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="Z104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AA104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AB104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AC104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AD104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AE104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AF104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AG104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AH104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AI104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AJ104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AK104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AL104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AM104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AN104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AO104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AP104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AQ104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AR104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
       <c r="AS104">
-        <v>560.0833316</v>
+        <v>79345.02172999999</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -13583,112 +13583,112 @@
         <v>0.8</v>
       </c>
       <c r="J105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="K105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="L105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="M105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="N105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="O105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="P105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="Q105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="R105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="S105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="T105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="U105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="V105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="W105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="X105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="Y105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="Z105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AA105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AB105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AC105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AD105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AE105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AF105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AG105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AH105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AI105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AJ105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AK105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AL105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AM105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AN105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AO105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AP105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AQ105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AR105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
       <c r="AS105">
-        <v>545519.8574</v>
+        <v>159707.5197</v>
       </c>
     </row>
     <row r="106" spans="1:45">
@@ -13705,112 +13705,112 @@
         <v>0.8</v>
       </c>
       <c r="J106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="K106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="L106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="M106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="N106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="O106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="P106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="Q106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="R106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="S106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="T106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="U106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="V106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="W106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="X106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="Y106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="Z106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AA106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AB106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AC106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AD106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AE106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AF106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AG106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AH106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AI106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AJ106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AK106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AL106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AM106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AN106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AO106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AP106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AQ106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AR106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
       <c r="AS106">
-        <v>552048.3726</v>
+        <v>91638.67157999999</v>
       </c>
     </row>
     <row r="107" spans="1:45">
@@ -13827,112 +13827,112 @@
         <v>0.8</v>
       </c>
       <c r="J107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="K107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="L107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="M107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="N107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="O107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="P107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="Q107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="R107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="S107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="T107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="U107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="V107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="W107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="X107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="Y107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="Z107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AA107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AB107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AC107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AD107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AE107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AF107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AG107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AH107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AI107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AJ107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AK107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AL107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AM107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AN107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AO107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AP107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AQ107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AR107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
       <c r="AS107">
-        <v>214829.9787</v>
+        <v>1107453.899</v>
       </c>
     </row>
     <row r="108" spans="1:45">
@@ -14681,112 +14681,112 @@
         <v>0.8</v>
       </c>
       <c r="J114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="K114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="L114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="M114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="N114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="O114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="P114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="Q114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="R114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="S114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="T114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="U114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="V114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="W114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="X114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="Y114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="Z114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AA114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AB114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AC114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AD114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AE114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AF114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AG114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AH114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AI114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AJ114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AK114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AL114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AM114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AN114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AO114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AP114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AQ114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AR114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
       <c r="AS114">
-        <v>2175.669756</v>
+        <v>163.8802033</v>
       </c>
     </row>
     <row r="115" spans="1:45">
@@ -14803,112 +14803,112 @@
         <v>0.8</v>
       </c>
       <c r="J115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="K115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="L115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="M115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="N115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="O115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="P115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="Q115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="R115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="S115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="T115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="U115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="V115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="W115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="X115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="Y115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="Z115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AA115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AB115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AC115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AD115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AE115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AF115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AG115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AH115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AI115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AJ115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AK115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AL115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AM115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AN115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AO115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AP115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AQ115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AR115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
       <c r="AS115">
-        <v>123085.1086</v>
+        <v>13243461.46</v>
       </c>
     </row>
     <row r="116" spans="1:45">

--- a/ref/ingestion/calibrated/el_salvador/model_input_variables_el_salvador_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/el_salvador/model_input_variables_el_salvador_ip_calibrated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="161">
   <si>
     <t>subsector</t>
   </si>
@@ -495,6 +495,9 @@
   <si>
     <t>vol_ippu_wood_m3_ww_per_tonne_production</t>
   </si>
+  <si>
+    <t>inf</t>
+  </si>
 </sst>
 </file>
 
@@ -1252,112 +1255,112 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>1.06802605</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1374,112 +1377,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>1.023034942</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1496,112 +1499,112 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0.983796243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1618,112 +1621,112 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>1.006187538</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -1740,112 +1743,112 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>1.013213372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1862,112 +1865,112 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>0.945154502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1984,112 +1987,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>1.018637731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2228,112 +2231,112 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>0.980970742</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2350,112 +2353,112 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AM13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AR13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
       <c r="AS13">
-        <v>0.971603321</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2472,112 +2475,112 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AM14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
       <c r="AS14">
-        <v>0.961251149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2594,112 +2597,112 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.107926479</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3326,112 +3329,112 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.041291252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -3448,112 +3451,112 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.023884863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -12476,112 +12479,112 @@
         <v>1</v>
       </c>
       <c r="J96">
-        <v>6336705.947</v>
+        <v>6270808.16669041</v>
       </c>
       <c r="K96">
-        <v>6336705.947</v>
+        <v>6780525.6716</v>
       </c>
       <c r="L96">
-        <v>6336705.947</v>
+        <v>7061019.63121261</v>
       </c>
       <c r="M96">
-        <v>6336705.947</v>
+        <v>5400697.35154045</v>
       </c>
       <c r="N96">
-        <v>6336705.947</v>
+        <v>6099237.2685588</v>
       </c>
       <c r="O96">
-        <v>6336705.947</v>
+        <v>6336705.94700221</v>
       </c>
       <c r="P96">
-        <v>6336705.947</v>
+        <v>6336706</v>
       </c>
       <c r="Q96">
-        <v>6336705.947</v>
+        <v>6832960.64336848</v>
       </c>
       <c r="R96">
-        <v>6336705.947</v>
+        <v>7368079.11773445</v>
       </c>
       <c r="S96">
-        <v>6336705.947</v>
+        <v>7945105.016503</v>
       </c>
       <c r="T96">
-        <v>6336705.947</v>
+        <v>8567320.28994157</v>
       </c>
       <c r="U96">
-        <v>6336705.947</v>
+        <v>9238263.911928849</v>
       </c>
       <c r="V96">
-        <v>6336705.947</v>
+        <v>9961752.008576879</v>
       </c>
       <c r="W96">
-        <v>6336705.947</v>
+        <v>10741899.563212</v>
       </c>
       <c r="X96">
-        <v>6336705.947</v>
+        <v>11583143.8211658</v>
       </c>
       <c r="Y96">
-        <v>6336705.947</v>
+        <v>12490269.5274963</v>
       </c>
       <c r="Z96">
-        <v>6336705.947</v>
+        <v>13468436.1411823</v>
       </c>
       <c r="AA96">
-        <v>6336705.947</v>
+        <v>14523207.1805794</v>
       </c>
       <c r="AB96">
-        <v>6336705.947</v>
+        <v>15660581.8670435</v>
       </c>
       <c r="AC96">
-        <v>6336705.947</v>
+        <v>16887029.2467029</v>
       </c>
       <c r="AD96">
-        <v>6336705.947</v>
+        <v>18209524.9844531</v>
       </c>
       <c r="AE96">
-        <v>6336705.947</v>
+        <v>19635591.0394459</v>
       </c>
       <c r="AF96">
-        <v>6336705.947</v>
+        <v>21173338.4477381</v>
       </c>
       <c r="AG96">
-        <v>6336705.947</v>
+        <v>22831513.4554317</v>
       </c>
       <c r="AH96">
-        <v>6336705.947</v>
+        <v>24619547.2646992</v>
       </c>
       <c r="AI96">
-        <v>6336705.947</v>
+        <v>26547609.6756327</v>
       </c>
       <c r="AJ96">
-        <v>6336705.947</v>
+        <v>28626666.9290174</v>
       </c>
       <c r="AK96">
-        <v>6336705.947</v>
+        <v>30868544.0790206</v>
       </c>
       <c r="AL96">
-        <v>6336705.947</v>
+        <v>33285992.250553</v>
       </c>
       <c r="AM96">
-        <v>6336705.947</v>
+        <v>35892761.163844</v>
       </c>
       <c r="AN96">
-        <v>6336705.947</v>
+        <v>38703677.3387262</v>
       </c>
       <c r="AO96">
-        <v>6336705.947</v>
+        <v>41734728.4234346</v>
       </c>
       <c r="AP96">
-        <v>6336705.947</v>
+        <v>45003154.1275547</v>
       </c>
       <c r="AQ96">
-        <v>6336705.947</v>
+        <v>48527544.2763207</v>
       </c>
       <c r="AR96">
-        <v>6336705.947</v>
+        <v>52327944.5439667</v>
       </c>
       <c r="AS96">
-        <v>6336705.947</v>
+        <v>56425970.4675099</v>
       </c>
     </row>
     <row r="97" spans="1:45">
@@ -12598,112 +12601,112 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>64326.11928</v>
+        <v>63860.6356247595</v>
       </c>
       <c r="K97">
-        <v>64326.11928</v>
+        <v>62774.0764733532</v>
       </c>
       <c r="L97">
-        <v>64326.11928</v>
+        <v>67726.4549433253</v>
       </c>
       <c r="M97">
-        <v>64326.11928</v>
+        <v>60733.722558311</v>
       </c>
       <c r="N97">
-        <v>64326.11928</v>
+        <v>57053.8711792603</v>
       </c>
       <c r="O97">
-        <v>64326.11928</v>
+        <v>64326.1192831146</v>
       </c>
       <c r="P97">
-        <v>64326.11928</v>
+        <v>64326.12</v>
       </c>
       <c r="Q97">
-        <v>64326.11928</v>
+        <v>66740.5104137818</v>
       </c>
       <c r="R97">
-        <v>64326.11928</v>
+        <v>69245.521574939</v>
       </c>
       <c r="S97">
-        <v>64326.11928</v>
+        <v>71844.55480573</v>
       </c>
       <c r="T97">
-        <v>64326.11928</v>
+        <v>74541.13909225891</v>
       </c>
       <c r="U97">
-        <v>64326.11928</v>
+        <v>77338.9358761583</v>
       </c>
       <c r="V97">
-        <v>64326.11928</v>
+        <v>80241.744026121</v>
       </c>
       <c r="W97">
-        <v>64326.11928</v>
+        <v>83253.5049960318</v>
       </c>
       <c r="X97">
-        <v>64326.11928</v>
+        <v>86378.3081767017</v>
       </c>
       <c r="Y97">
-        <v>64326.11928</v>
+        <v>89620.3964484724</v>
       </c>
       <c r="Z97">
-        <v>64326.11928</v>
+        <v>92984.1719422301</v>
       </c>
       <c r="AA97">
-        <v>64326.11928</v>
+        <v>96474.2020166502</v>
       </c>
       <c r="AB97">
-        <v>64326.11928</v>
+        <v>100095.22545979</v>
       </c>
       <c r="AC97">
-        <v>64326.11928</v>
+        <v>103852.158923451</v>
       </c>
       <c r="AD97">
-        <v>64326.11928</v>
+        <v>107750.10359904</v>
       </c>
       <c r="AE97">
-        <v>64326.11928</v>
+        <v>111794.352144009</v>
       </c>
       <c r="AF97">
-        <v>64326.11928</v>
+        <v>115990.395868261</v>
       </c>
       <c r="AG97">
-        <v>64326.11928</v>
+        <v>120343.932190288</v>
       </c>
       <c r="AH97">
-        <v>64326.11928</v>
+        <v>124860.872373172</v>
       </c>
       <c r="AI97">
-        <v>64326.11928</v>
+        <v>129547.349550938</v>
       </c>
       <c r="AJ97">
-        <v>64326.11928</v>
+        <v>134409.727056166</v>
       </c>
       <c r="AK97">
-        <v>64326.11928</v>
+        <v>139454.607060175</v>
       </c>
       <c r="AL97">
-        <v>64326.11928</v>
+        <v>144688.839537491</v>
       </c>
       <c r="AM97">
-        <v>64326.11928</v>
+        <v>150119.531566803</v>
       </c>
       <c r="AN97">
-        <v>64326.11928</v>
+        <v>155754.056980994</v>
       </c>
       <c r="AO97">
-        <v>64326.11928</v>
+        <v>161600.066379393</v>
       </c>
       <c r="AP97">
-        <v>64326.11928</v>
+        <v>167665.49751581</v>
       </c>
       <c r="AQ97">
-        <v>64326.11928</v>
+        <v>173958.586076477</v>
       </c>
       <c r="AR97">
-        <v>64326.11928</v>
+        <v>180487.876862523</v>
       </c>
       <c r="AS97">
-        <v>64326.11928</v>
+        <v>187262.235392164</v>
       </c>
     </row>
     <row r="98" spans="1:45">
@@ -12720,112 +12723,112 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>90719.24333</v>
+        <v>62564.0860174214</v>
       </c>
       <c r="K98">
-        <v>90719.24333</v>
+        <v>70554.0525673035</v>
       </c>
       <c r="L98">
-        <v>90719.24333</v>
+        <v>77457.1410833503</v>
       </c>
       <c r="M98">
-        <v>90719.24333</v>
+        <v>93226.9265936227</v>
       </c>
       <c r="N98">
-        <v>90719.24333</v>
+        <v>91221.56263824389</v>
       </c>
       <c r="O98">
-        <v>90719.24333</v>
+        <v>90719.24332959981</v>
       </c>
       <c r="P98">
-        <v>90719.24333</v>
+        <v>90719.24000000001</v>
       </c>
       <c r="Q98">
-        <v>90719.24333</v>
+        <v>97156.73433280201</v>
       </c>
       <c r="R98">
-        <v>90719.24333</v>
+        <v>104051.037312643</v>
       </c>
       <c r="S98">
-        <v>90719.24333</v>
+        <v>111434.564368451</v>
       </c>
       <c r="T98">
-        <v>90719.24333</v>
+        <v>119342.031148377</v>
       </c>
       <c r="U98">
-        <v>90719.24333</v>
+        <v>127810.616744804</v>
       </c>
       <c r="V98">
-        <v>90719.24333</v>
+        <v>136880.138501893</v>
       </c>
       <c r="W98">
-        <v>90719.24333</v>
+        <v>146593.239227595</v>
       </c>
       <c r="X98">
-        <v>90719.24333</v>
+        <v>156995.587690332</v>
       </c>
       <c r="Y98">
-        <v>90719.24333</v>
+        <v>168136.093343063</v>
       </c>
       <c r="Z98">
-        <v>90719.24333</v>
+        <v>180067.136284289</v>
       </c>
       <c r="AA98">
-        <v>90719.24333</v>
+        <v>192844.813537251</v>
       </c>
       <c r="AB98">
-        <v>90719.24333</v>
+        <v>206529.202805242</v>
       </c>
       <c r="AC98">
-        <v>90719.24333</v>
+        <v>221184.644943171</v>
       </c>
       <c r="AD98">
-        <v>90719.24333</v>
+        <v>236880.04647348</v>
       </c>
       <c r="AE98">
-        <v>90719.24333</v>
+        <v>253689.203568787</v>
       </c>
       <c r="AF98">
-        <v>90719.24333</v>
+        <v>271691.149024537</v>
       </c>
       <c r="AG98">
-        <v>90719.24333</v>
+        <v>290970.523853051</v>
       </c>
       <c r="AH98">
-        <v>90719.24333</v>
+        <v>311617.975246123</v>
       </c>
       <c r="AI98">
-        <v>90719.24333</v>
+        <v>333730.582777295</v>
       </c>
       <c r="AJ98">
-        <v>90719.24333</v>
+        <v>357412.314847708</v>
       </c>
       <c r="AK98">
-        <v>90719.24333</v>
+        <v>382774.517521647</v>
       </c>
       <c r="AL98">
-        <v>90719.24333</v>
+        <v>409936.438050155</v>
       </c>
       <c r="AM98">
-        <v>90719.24333</v>
+        <v>439025.785544213</v>
       </c>
       <c r="AN98">
-        <v>90719.24333</v>
+        <v>470179.33143365</v>
       </c>
       <c r="AO98">
-        <v>90719.24333</v>
+        <v>503543.552534981</v>
       </c>
       <c r="AP98">
-        <v>90719.24333</v>
+        <v>539275.319751758</v>
       </c>
       <c r="AQ98">
-        <v>90719.24333</v>
+        <v>577542.635645519</v>
       </c>
       <c r="AR98">
-        <v>90719.24333</v>
+        <v>618525.424345243</v>
       </c>
       <c r="AS98">
-        <v>90719.24333</v>
+        <v>662416.377509273</v>
       </c>
     </row>
     <row r="99" spans="1:45">
@@ -12842,112 +12845,112 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>5821.270292</v>
+        <v>4850.22797342753</v>
       </c>
       <c r="K99">
-        <v>5821.270292</v>
+        <v>5439.5646939778</v>
       </c>
       <c r="L99">
-        <v>5821.270292</v>
+        <v>5444.62232709263</v>
       </c>
       <c r="M99">
-        <v>5821.270292</v>
+        <v>6234.19263835195</v>
       </c>
       <c r="N99">
-        <v>5821.270292</v>
+        <v>5893.27057727725</v>
       </c>
       <c r="O99">
-        <v>5821.270292</v>
+        <v>5821.27029202642</v>
       </c>
       <c r="P99">
-        <v>5821.270292</v>
+        <v>5821.27</v>
       </c>
       <c r="Q99">
-        <v>5821.270292</v>
+        <v>6025.39215786481</v>
       </c>
       <c r="R99">
-        <v>5821.270292</v>
+        <v>6236.67183553739</v>
       </c>
       <c r="S99">
-        <v>5821.270292</v>
+        <v>6455.36001062024</v>
       </c>
       <c r="T99">
-        <v>5821.270292</v>
+        <v>6681.71646121641</v>
       </c>
       <c r="U99">
-        <v>5821.270292</v>
+        <v>6916.01007451803</v>
       </c>
       <c r="V99">
-        <v>5821.270292</v>
+        <v>7158.51916621544</v>
       </c>
       <c r="W99">
-        <v>5821.270292</v>
+        <v>7409.53181110641</v>
       </c>
       <c r="X99">
-        <v>5821.270292</v>
+        <v>7669.34618529812</v>
       </c>
       <c r="Y99">
-        <v>5821.270292</v>
+        <v>7938.27092040838</v>
       </c>
       <c r="Z99">
-        <v>5821.270292</v>
+        <v>8216.6254701869</v>
       </c>
       <c r="AA99">
-        <v>5821.270292</v>
+        <v>8504.740489992109</v>
       </c>
       <c r="AB99">
-        <v>5821.270292</v>
+        <v>8802.95822957426</v>
       </c>
       <c r="AC99">
-        <v>5821.270292</v>
+        <v>9111.63293963143</v>
       </c>
       <c r="AD99">
-        <v>5821.270292</v>
+        <v>9431.13129262134</v>
       </c>
       <c r="AE99">
-        <v>5821.270292</v>
+        <v>9761.832818329</v>
       </c>
       <c r="AF99">
-        <v>5821.270292</v>
+        <v>10104.1303547073</v>
       </c>
       <c r="AG99">
-        <v>5821.270292</v>
+        <v>10458.4305145264</v>
       </c>
       <c r="AH99">
-        <v>5821.270292</v>
+        <v>10825.1541683862</v>
       </c>
       <c r="AI99">
-        <v>5821.270292</v>
+        <v>11204.7369446652</v>
       </c>
       <c r="AJ99">
-        <v>5821.270292</v>
+        <v>11597.6297470009</v>
       </c>
       <c r="AK99">
-        <v>5821.270292</v>
+        <v>12004.2992899142</v>
       </c>
       <c r="AL99">
-        <v>5821.270292</v>
+        <v>12425.2286532168</v>
       </c>
       <c r="AM99">
-        <v>5821.270292</v>
+        <v>12860.9178558578</v>
       </c>
       <c r="AN99">
-        <v>5821.270292</v>
+        <v>13311.8844498931</v>
       </c>
       <c r="AO99">
-        <v>5821.270292</v>
+        <v>13778.6641352812</v>
       </c>
       <c r="AP99">
-        <v>5821.270292</v>
+        <v>14261.8113962377</v>
       </c>
       <c r="AQ99">
-        <v>5821.270292</v>
+        <v>14761.9001599028</v>
       </c>
       <c r="AR99">
-        <v>5821.270292</v>
+        <v>15279.5244781056</v>
       </c>
       <c r="AS99">
-        <v>5821.270292</v>
+        <v>15815.2992330334</v>
       </c>
     </row>
     <row r="100" spans="1:45">
@@ -12964,112 +12967,112 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>560.0833316</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>560.0833316</v>
+        <v>1508.71573858184</v>
       </c>
       <c r="L100">
-        <v>560.0833316</v>
+        <v>1728.28850397102</v>
       </c>
       <c r="M100">
-        <v>560.0833316</v>
+        <v>2028.94716121149</v>
       </c>
       <c r="N100">
-        <v>560.0833316</v>
+        <v>0</v>
       </c>
       <c r="O100">
-        <v>560.0833316</v>
+        <v>560.0833316468739</v>
       </c>
       <c r="P100">
-        <v>560.0833316</v>
-      </c>
-      <c r="Q100">
-        <v>560.0833316</v>
-      </c>
-      <c r="R100">
-        <v>560.0833316</v>
-      </c>
-      <c r="S100">
-        <v>560.0833316</v>
-      </c>
-      <c r="T100">
-        <v>560.0833316</v>
-      </c>
-      <c r="U100">
-        <v>560.0833316</v>
-      </c>
-      <c r="V100">
-        <v>560.0833316</v>
-      </c>
-      <c r="W100">
-        <v>560.0833316</v>
-      </c>
-      <c r="X100">
-        <v>560.0833316</v>
-      </c>
-      <c r="Y100">
-        <v>560.0833316</v>
-      </c>
-      <c r="Z100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AA100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AB100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AC100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AD100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AE100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AF100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AG100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AH100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AI100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AJ100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AK100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AL100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AM100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AN100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AO100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AP100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AQ100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AR100">
-        <v>560.0833316</v>
-      </c>
-      <c r="AS100">
-        <v>560.0833316</v>
+        <v>560.0833</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>160</v>
+      </c>
+      <c r="R100" t="s">
+        <v>160</v>
+      </c>
+      <c r="S100" t="s">
+        <v>160</v>
+      </c>
+      <c r="T100" t="s">
+        <v>160</v>
+      </c>
+      <c r="U100" t="s">
+        <v>160</v>
+      </c>
+      <c r="V100" t="s">
+        <v>160</v>
+      </c>
+      <c r="W100" t="s">
+        <v>160</v>
+      </c>
+      <c r="X100" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS100" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13086,112 +13089,112 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>545519.8574</v>
+        <v>454694.771829416</v>
       </c>
       <c r="K101">
-        <v>545519.8574</v>
+        <v>488921.317581452</v>
       </c>
       <c r="L101">
-        <v>545519.8574</v>
+        <v>540670.793726652</v>
       </c>
       <c r="M101">
-        <v>545519.8574</v>
+        <v>580229.131052459</v>
       </c>
       <c r="N101">
-        <v>545519.8574</v>
+        <v>547339.903030655</v>
       </c>
       <c r="O101">
-        <v>545519.8574</v>
+        <v>545519.857413516</v>
       </c>
       <c r="P101">
-        <v>545519.8574</v>
+        <v>545519.9</v>
       </c>
       <c r="Q101">
-        <v>545519.8574</v>
+        <v>573147.23119998</v>
       </c>
       <c r="R101">
-        <v>545519.8574</v>
+        <v>602173.722044243</v>
       </c>
       <c r="S101">
-        <v>545519.8574</v>
+        <v>632670.231628662</v>
       </c>
       <c r="T101">
-        <v>545519.8574</v>
+        <v>664711.2076399371</v>
       </c>
       <c r="U101">
-        <v>545519.8574</v>
+        <v>698374.868096333</v>
       </c>
       <c r="V101">
-        <v>545519.8574</v>
+        <v>733743.392292499</v>
       </c>
       <c r="W101">
-        <v>545519.8574</v>
+        <v>770903.121414501</v>
       </c>
       <c r="X101">
-        <v>545519.8574</v>
+        <v>809944.7693148199</v>
       </c>
       <c r="Y101">
-        <v>545519.8574</v>
+        <v>850963.643961834</v>
       </c>
       <c r="Z101">
-        <v>545519.8574</v>
+        <v>894059.880104412</v>
       </c>
       <c r="AA101">
-        <v>545519.8574</v>
+        <v>939338.683719568</v>
       </c>
       <c r="AB101">
-        <v>545519.8574</v>
+        <v>986910.588839938</v>
       </c>
       <c r="AC101">
-        <v>545519.8574</v>
+        <v>1036891.72738804</v>
       </c>
       <c r="AD101">
-        <v>545519.8574</v>
+        <v>1089404.11267604</v>
       </c>
       <c r="AE101">
-        <v>545519.8574</v>
+        <v>1144575.93726305</v>
       </c>
       <c r="AF101">
-        <v>545519.8574</v>
+        <v>1202541.88589717</v>
       </c>
       <c r="AG101">
-        <v>545519.8574</v>
+        <v>1263443.46430619</v>
       </c>
       <c r="AH101">
-        <v>545519.8574</v>
+        <v>1327429.3446395</v>
       </c>
       <c r="AI101">
-        <v>545519.8574</v>
+        <v>1394655.72840465</v>
       </c>
       <c r="AJ101">
-        <v>545519.8574</v>
+        <v>1465286.72778448</v>
       </c>
       <c r="AK101">
-        <v>545519.8574</v>
+        <v>1539494.76626564</v>
       </c>
       <c r="AL101">
-        <v>545519.8574</v>
+        <v>1617460.99955659</v>
       </c>
       <c r="AM101">
-        <v>545519.8574</v>
+        <v>1699375.7578226</v>
       </c>
       <c r="AN101">
-        <v>545519.8574</v>
+        <v>1785439.0103173</v>
       </c>
       <c r="AO101">
-        <v>545519.8574</v>
+        <v>1875860.85354502</v>
       </c>
       <c r="AP101">
-        <v>545519.8574</v>
+        <v>1970862.0241457</v>
       </c>
       <c r="AQ101">
-        <v>545519.8574</v>
+        <v>2070674.43775433</v>
       </c>
       <c r="AR101">
-        <v>545519.8574</v>
+        <v>2175541.75515039</v>
       </c>
       <c r="AS101">
-        <v>545519.8574</v>
+        <v>2285719.97707947</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13208,112 +13211,112 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>108</v>
+        <v>46286.2291724209</v>
       </c>
       <c r="K102">
-        <v>100</v>
+        <v>52112.8840560455</v>
       </c>
       <c r="L102">
-        <v>100</v>
+        <v>73490.6204037136</v>
       </c>
       <c r="M102">
-        <v>100</v>
+        <v>78329.75859486101</v>
       </c>
       <c r="N102">
-        <v>100</v>
+        <v>54240.6933822808</v>
       </c>
       <c r="O102">
-        <v>100</v>
+        <v>46495.4777176006</v>
       </c>
       <c r="P102">
-        <v>100</v>
+        <v>46495.48</v>
       </c>
       <c r="Q102">
-        <v>100</v>
+        <v>46391.7688979952</v>
       </c>
       <c r="R102">
-        <v>100</v>
+        <v>46288.2891301476</v>
       </c>
       <c r="S102">
-        <v>100</v>
+        <v>46185.0401804518</v>
       </c>
       <c r="T102">
-        <v>100</v>
+        <v>46082.0215340532</v>
       </c>
       <c r="U102">
-        <v>100</v>
+        <v>45979.232677246</v>
       </c>
       <c r="V102">
-        <v>100</v>
+        <v>45876.6730974698</v>
       </c>
       <c r="W102">
-        <v>100</v>
+        <v>45774.3422833078</v>
       </c>
       <c r="X102">
-        <v>100</v>
+        <v>45672.2397244839</v>
       </c>
       <c r="Y102">
-        <v>100</v>
+        <v>45570.3649118601</v>
       </c>
       <c r="Z102">
-        <v>100</v>
+        <v>45468.7173374342</v>
       </c>
       <c r="AA102">
-        <v>100</v>
+        <v>45367.296494337</v>
       </c>
       <c r="AB102">
-        <v>100</v>
+        <v>45266.1018768299</v>
       </c>
       <c r="AC102">
-        <v>100</v>
+        <v>45165.1329803026</v>
       </c>
       <c r="AD102">
-        <v>100</v>
+        <v>45064.3893012702</v>
       </c>
       <c r="AE102">
-        <v>100</v>
+        <v>44963.8703373707</v>
       </c>
       <c r="AF102">
-        <v>100</v>
+        <v>44863.575587363</v>
       </c>
       <c r="AG102">
-        <v>100</v>
+        <v>44763.5045511238</v>
       </c>
       <c r="AH102">
-        <v>100</v>
+        <v>44663.6567296454</v>
       </c>
       <c r="AI102">
-        <v>100</v>
+        <v>44564.0316250331</v>
       </c>
       <c r="AJ102">
-        <v>100</v>
+        <v>44464.6287405031</v>
       </c>
       <c r="AK102">
-        <v>100</v>
+        <v>44365.4475803793</v>
       </c>
       <c r="AL102">
-        <v>100</v>
+        <v>44266.4876500916</v>
       </c>
       <c r="AM102">
-        <v>100</v>
+        <v>44167.7484561727</v>
       </c>
       <c r="AN102">
-        <v>100</v>
+        <v>44069.2295062562</v>
       </c>
       <c r="AO102">
-        <v>100</v>
+        <v>43970.9303090742</v>
       </c>
       <c r="AP102">
-        <v>100</v>
+        <v>43872.8503744541</v>
       </c>
       <c r="AQ102">
-        <v>100</v>
+        <v>43774.989213317</v>
       </c>
       <c r="AR102">
-        <v>100</v>
+        <v>43677.3463376748</v>
       </c>
       <c r="AS102">
-        <v>100</v>
+        <v>43579.9212606281</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13330,112 +13333,112 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>552048.3726</v>
+        <v>516717.294788736</v>
       </c>
       <c r="K103">
-        <v>552048.3726</v>
+        <v>509102.946985872</v>
       </c>
       <c r="L103">
-        <v>552048.3726</v>
+        <v>549636.164840267</v>
       </c>
       <c r="M103">
-        <v>552048.3726</v>
+        <v>536396.831873262</v>
       </c>
       <c r="N103">
-        <v>552048.3726</v>
+        <v>544549.298329128</v>
       </c>
       <c r="O103">
-        <v>552048.3726</v>
+        <v>552048.372609986</v>
       </c>
       <c r="P103">
-        <v>552048.3726</v>
+        <v>552048.4</v>
       </c>
       <c r="Q103">
-        <v>552048.3726</v>
+        <v>570788.958169804</v>
       </c>
       <c r="R103">
-        <v>552048.3726</v>
+        <v>590165.707877371</v>
       </c>
       <c r="S103">
-        <v>552048.3726</v>
+        <v>610200.246114054</v>
       </c>
       <c r="T103">
-        <v>552048.3726</v>
+        <v>630914.903030964</v>
       </c>
       <c r="U103">
-        <v>552048.3726</v>
+        <v>652332.766827776</v>
       </c>
       <c r="V103">
-        <v>552048.3726</v>
+        <v>674477.709486437</v>
       </c>
       <c r="W103">
-        <v>552048.3726</v>
+        <v>697374.413378463</v>
       </c>
       <c r="X103">
-        <v>552048.3726</v>
+        <v>721048.39877549</v>
       </c>
       <c r="Y103">
-        <v>552048.3726</v>
+        <v>745526.052293725</v>
       </c>
       <c r="Z103">
-        <v>552048.3726</v>
+        <v>770834.656304016</v>
       </c>
       <c r="AA103">
-        <v>552048.3726</v>
+        <v>797002.419340312</v>
       </c>
       <c r="AB103">
-        <v>552048.3726</v>
+        <v>824058.5075404081</v>
       </c>
       <c r="AC103">
-        <v>552048.3726</v>
+        <v>852033.077154019</v>
       </c>
       <c r="AD103">
-        <v>552048.3726</v>
+        <v>880957.308154421</v>
       </c>
       <c r="AE103">
-        <v>552048.3726</v>
+        <v>910863.438991104</v>
       </c>
       <c r="AF103">
-        <v>552048.3726</v>
+        <v>941784.802522202</v>
       </c>
       <c r="AG103">
-        <v>552048.3726</v>
+        <v>973755.863166712</v>
       </c>
       <c r="AH103">
-        <v>552048.3726</v>
+        <v>1006812.25531795</v>
       </c>
       <c r="AI103">
-        <v>552048.3726</v>
+        <v>1040990.82306103</v>
       </c>
       <c r="AJ103">
-        <v>552048.3726</v>
+        <v>1076329.66123864</v>
       </c>
       <c r="AK103">
-        <v>552048.3726</v>
+        <v>1112868.1579109</v>
       </c>
       <c r="AL103">
-        <v>552048.3726</v>
+        <v>1150647.03825663</v>
       </c>
       <c r="AM103">
-        <v>552048.3726</v>
+        <v>1189708.40996491</v>
       </c>
       <c r="AN103">
-        <v>552048.3726</v>
+        <v>1230095.81016759</v>
       </c>
       <c r="AO103">
-        <v>552048.3726</v>
+        <v>1271854.25396505</v>
       </c>
       <c r="AP103">
-        <v>552048.3726</v>
+        <v>1315030.28459923</v>
       </c>
       <c r="AQ103">
-        <v>552048.3726</v>
+        <v>1359672.0253299</v>
       </c>
       <c r="AR103">
-        <v>552048.3726</v>
+        <v>1405829.23307211</v>
       </c>
       <c r="AS103">
-        <v>552048.3726</v>
+        <v>1453553.35385427</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13452,112 +13455,112 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>214829.9787</v>
+        <v>192688.623563331</v>
       </c>
       <c r="K104">
-        <v>214829.9787</v>
+        <v>200550.794308594</v>
       </c>
       <c r="L104">
-        <v>214829.9787</v>
+        <v>207914.297062672</v>
       </c>
       <c r="M104">
-        <v>214829.9787</v>
+        <v>208783.213786659</v>
       </c>
       <c r="N104">
-        <v>214829.9787</v>
+        <v>218368.578380171</v>
       </c>
       <c r="O104">
-        <v>214829.9787</v>
+        <v>214829.978676142</v>
       </c>
       <c r="P104">
-        <v>214829.9787</v>
+        <v>214830</v>
       </c>
       <c r="Q104">
-        <v>214829.9787</v>
+        <v>224258.757309972</v>
       </c>
       <c r="R104">
-        <v>214829.9787</v>
+        <v>234101.337011651</v>
       </c>
       <c r="S104">
-        <v>214829.9787</v>
+        <v>244375.901516714</v>
       </c>
       <c r="T104">
-        <v>214829.9787</v>
+        <v>255101.410373982</v>
       </c>
       <c r="U104">
-        <v>214829.9787</v>
+        <v>266297.655255273</v>
       </c>
       <c r="V104">
-        <v>214829.9787</v>
+        <v>277985.296476781</v>
       </c>
       <c r="W104">
-        <v>214829.9787</v>
+        <v>290185.90112334</v>
       </c>
       <c r="X104">
-        <v>214829.9787</v>
+        <v>302921.982845946</v>
       </c>
       <c r="Y104">
-        <v>214829.9787</v>
+        <v>316217.04340597</v>
       </c>
       <c r="Z104">
-        <v>214829.9787</v>
+        <v>330095.616042714</v>
       </c>
       <c r="AA104">
-        <v>214829.9787</v>
+        <v>344583.31074435</v>
       </c>
       <c r="AB104">
-        <v>214829.9787</v>
+        <v>359706.861505767</v>
       </c>
       <c r="AC104">
-        <v>214829.9787</v>
+        <v>375494.175660538</v>
       </c>
       <c r="AD104">
-        <v>214829.9787</v>
+        <v>391974.385378041</v>
       </c>
       <c r="AE104">
-        <v>214829.9787</v>
+        <v>409177.90142075</v>
       </c>
       <c r="AF104">
-        <v>214829.9787</v>
+        <v>427136.469260902</v>
       </c>
       <c r="AG104">
-        <v>214829.9787</v>
+        <v>445883.227660098</v>
       </c>
       <c r="AH104">
-        <v>214829.9787</v>
+        <v>465452.769819918</v>
       </c>
       <c r="AI104">
-        <v>214829.9787</v>
+        <v>485881.2072164</v>
       </c>
       <c r="AJ104">
-        <v>214829.9787</v>
+        <v>507206.236236181</v>
       </c>
       <c r="AK104">
-        <v>214829.9787</v>
+        <v>529467.207737253</v>
       </c>
       <c r="AL104">
-        <v>214829.9787</v>
+        <v>552705.199662697</v>
       </c>
       <c r="AM104">
-        <v>214829.9787</v>
+        <v>576963.092841393</v>
       </c>
       <c r="AN104">
-        <v>214829.9787</v>
+        <v>602285.650115574</v>
       </c>
       <c r="AO104">
-        <v>214829.9787</v>
+        <v>628719.598941243</v>
       </c>
       <c r="AP104">
-        <v>214829.9787</v>
+        <v>656313.717613867</v>
       </c>
       <c r="AQ104">
-        <v>214829.9787</v>
+        <v>685118.92527847</v>
       </c>
       <c r="AR104">
-        <v>214829.9787</v>
+        <v>715188.3758902079</v>
       </c>
       <c r="AS104">
-        <v>214829.9787</v>
+        <v>746577.556298818</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -14306,112 +14309,112 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <v>2175.669756</v>
+        <v>2894.36460075465</v>
       </c>
       <c r="K111">
-        <v>2175.669756</v>
+        <v>3189.68732307984</v>
       </c>
       <c r="L111">
-        <v>2175.669756</v>
+        <v>2345.54950698173</v>
       </c>
       <c r="M111">
-        <v>2175.669756</v>
+        <v>2153.27641877544</v>
       </c>
       <c r="N111">
-        <v>2175.669756</v>
+        <v>2334.17669621676</v>
       </c>
       <c r="O111">
-        <v>2175.669756</v>
+        <v>2175.66975644922</v>
       </c>
       <c r="P111">
-        <v>2175.669756</v>
+        <v>2175.67</v>
       </c>
       <c r="Q111">
-        <v>2175.669756</v>
+        <v>2214.15404051064</v>
       </c>
       <c r="R111">
-        <v>2175.669756</v>
+        <v>2253.3188006957</v>
       </c>
       <c r="S111">
-        <v>2175.669756</v>
+        <v>2293.17632137179</v>
       </c>
       <c r="T111">
-        <v>2175.669756</v>
+        <v>2333.73885633791</v>
       </c>
       <c r="U111">
-        <v>2175.669756</v>
+        <v>2375.01887614264</v>
       </c>
       <c r="V111">
-        <v>2175.669756</v>
+        <v>2417.0290719182</v>
       </c>
       <c r="W111">
-        <v>2175.669756</v>
+        <v>2459.78235928214</v>
       </c>
       <c r="X111">
-        <v>2175.669756</v>
+        <v>2503.29188230814</v>
       </c>
       <c r="Y111">
-        <v>2175.669756</v>
+        <v>2547.57101756703</v>
       </c>
       <c r="Z111">
-        <v>2175.669756</v>
+        <v>2592.63337823928</v>
       </c>
       <c r="AA111">
-        <v>2175.669756</v>
+        <v>2638.49281830023</v>
       </c>
       <c r="AB111">
-        <v>2175.669756</v>
+        <v>2685.16343677937</v>
       </c>
       <c r="AC111">
-        <v>2175.669756</v>
+        <v>2732.65958209493</v>
       </c>
       <c r="AD111">
-        <v>2175.669756</v>
+        <v>2780.99585646519</v>
       </c>
       <c r="AE111">
-        <v>2175.669756</v>
+        <v>2830.18712039774</v>
       </c>
       <c r="AF111">
-        <v>2175.669756</v>
+        <v>2880.24849725824</v>
       </c>
       <c r="AG111">
-        <v>2175.669756</v>
+        <v>2931.19537791993</v>
       </c>
       <c r="AH111">
-        <v>2175.669756</v>
+        <v>2983.04342549538</v>
       </c>
       <c r="AI111">
-        <v>2175.669756</v>
+        <v>3035.808580152</v>
       </c>
       <c r="AJ111">
-        <v>2175.669756</v>
+        <v>3089.50706401266</v>
       </c>
       <c r="AK111">
-        <v>2175.669756</v>
+        <v>3144.15538614303</v>
       </c>
       <c r="AL111">
-        <v>2175.669756</v>
+        <v>3199.77034762712</v>
       </c>
       <c r="AM111">
-        <v>2175.669756</v>
+        <v>3256.36904673261</v>
       </c>
       <c r="AN111">
-        <v>2175.669756</v>
+        <v>3313.96888416754</v>
       </c>
       <c r="AO111">
-        <v>2175.669756</v>
+        <v>3372.58756843</v>
       </c>
       <c r="AP111">
-        <v>2175.669756</v>
+        <v>3432.24312125242</v>
       </c>
       <c r="AQ111">
-        <v>2175.669756</v>
+        <v>3492.95388314216</v>
       </c>
       <c r="AR111">
-        <v>2175.669756</v>
+        <v>3554.73851902015</v>
       </c>
       <c r="AS111">
-        <v>2175.669756</v>
+        <v>3617.61602395918</v>
       </c>
     </row>
     <row r="112" spans="1:45">
@@ -14428,112 +14431,112 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <v>123085.1086</v>
+        <v>135537.028549838</v>
       </c>
       <c r="K112">
-        <v>123085.1086</v>
+        <v>136312.736730274</v>
       </c>
       <c r="L112">
-        <v>123085.1086</v>
+        <v>138978.691114166</v>
       </c>
       <c r="M112">
-        <v>123085.1086</v>
+        <v>140670.504929068</v>
       </c>
       <c r="N112">
-        <v>123085.1086</v>
+        <v>134148.065059823</v>
       </c>
       <c r="O112">
-        <v>123085.1086</v>
+        <v>123085.108589292</v>
       </c>
       <c r="P112">
-        <v>123085.1086</v>
+        <v>123085.1</v>
       </c>
       <c r="Q112">
-        <v>123085.1086</v>
+        <v>123498.408540439</v>
       </c>
       <c r="R112">
-        <v>123085.1086</v>
+        <v>123913.104933263</v>
       </c>
       <c r="S112">
-        <v>123085.1086</v>
+        <v>124329.193838754</v>
       </c>
       <c r="T112">
-        <v>123085.1086</v>
+        <v>124746.679932842</v>
       </c>
       <c r="U112">
-        <v>123085.1086</v>
+        <v>125165.567907159</v>
       </c>
       <c r="V112">
-        <v>123085.1086</v>
+        <v>125585.862469091</v>
       </c>
       <c r="W112">
-        <v>123085.1086</v>
+        <v>126007.568341832</v>
       </c>
       <c r="X112">
-        <v>123085.1086</v>
+        <v>126430.690264433</v>
       </c>
       <c r="Y112">
-        <v>123085.1086</v>
+        <v>126855.232991862</v>
       </c>
       <c r="Z112">
-        <v>123085.1086</v>
+        <v>127281.201295052</v>
       </c>
       <c r="AA112">
-        <v>123085.1086</v>
+        <v>127708.599960955</v>
       </c>
       <c r="AB112">
-        <v>123085.1086</v>
+        <v>128137.4337926</v>
       </c>
       <c r="AC112">
-        <v>123085.1086</v>
+        <v>128567.707609141</v>
       </c>
       <c r="AD112">
-        <v>123085.1086</v>
+        <v>128999.426245918</v>
       </c>
       <c r="AE112">
-        <v>123085.1086</v>
+        <v>129432.594554504</v>
       </c>
       <c r="AF112">
-        <v>123085.1086</v>
+        <v>129867.217402765</v>
       </c>
       <c r="AG112">
-        <v>123085.1086</v>
+        <v>130303.299674914</v>
       </c>
       <c r="AH112">
-        <v>123085.1086</v>
+        <v>130740.846271561</v>
       </c>
       <c r="AI112">
-        <v>123085.1086</v>
+        <v>131179.862109776</v>
       </c>
       <c r="AJ112">
-        <v>123085.1086</v>
+        <v>131620.352123137</v>
       </c>
       <c r="AK112">
-        <v>123085.1086</v>
+        <v>132062.32126179</v>
       </c>
       <c r="AL112">
-        <v>123085.1086</v>
+        <v>132505.774492504</v>
       </c>
       <c r="AM112">
-        <v>123085.1086</v>
+        <v>132950.716798723</v>
       </c>
       <c r="AN112">
-        <v>123085.1086</v>
+        <v>133397.153180628</v>
       </c>
       <c r="AO112">
-        <v>123085.1086</v>
+        <v>133845.088655188</v>
       </c>
       <c r="AP112">
-        <v>123085.1086</v>
+        <v>134294.52825622</v>
       </c>
       <c r="AQ112">
-        <v>123085.1086</v>
+        <v>134745.477034443</v>
       </c>
       <c r="AR112">
-        <v>123085.1086</v>
+        <v>135197.940057537</v>
       </c>
       <c r="AS112">
-        <v>123085.1086</v>
+        <v>135651.922410198</v>
       </c>
     </row>
     <row r="113" spans="1:45">
